--- a/Matlab_Excel/Excel/Iterative.xlsx
+++ b/Matlab_Excel/Excel/Iterative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22819"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3e74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1176" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B7CC687-5FDA-41C6-89CD-1EEEA92BFFA4}"/>
+  <xr:revisionPtr revIDLastSave="2529" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C8F19A2B-43F1-458C-98B1-98E057410148}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
     <t>Data</t>
   </si>
   <si>
-    <t>R0 300</t>
+    <t>R0 500</t>
   </si>
   <si>
     <t>Total site = 500</t>
@@ -95,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,16 +421,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="8" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="12" width="13.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -437,504 +438,493 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C1">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="D1">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="E1">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="F1">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="G1">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="H1">
-        <v>90</v>
-      </c>
-      <c r="J1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I1">
+        <v>550</v>
+      </c>
+      <c r="J1">
+        <v>600</v>
+      </c>
+      <c r="K1">
+        <v>650</v>
+      </c>
+      <c r="L1">
+        <v>700</v>
+      </c>
+      <c r="N1" t="s">
         <v>1</v>
       </c>
-      <c r="K1">
-        <v>100</v>
-      </c>
-      <c r="L1">
-        <v>150</v>
-      </c>
-      <c r="M1">
+      <c r="O1">
         <v>200</v>
       </c>
-      <c r="N1">
+      <c r="P1">
         <v>250</v>
       </c>
-      <c r="O1">
+      <c r="Q1">
         <v>300</v>
       </c>
-      <c r="P1">
+      <c r="R1">
         <v>350</v>
       </c>
-      <c r="Q1">
+      <c r="S1">
         <v>400</v>
       </c>
-      <c r="R1">
+      <c r="T1">
         <v>450</v>
       </c>
-      <c r="S1">
+      <c r="U1">
         <v>500</v>
       </c>
-      <c r="T1">
+      <c r="V1">
         <v>550</v>
       </c>
-      <c r="U1">
+      <c r="W1">
         <v>600</v>
       </c>
-      <c r="V1">
+      <c r="X1">
         <v>650</v>
+      </c>
+      <c r="Y1">
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>27.016999999999999</v>
-      </c>
       <c r="D2">
-        <v>30.968800000000002</v>
+        <v>27.710100000000001</v>
       </c>
       <c r="E2">
-        <v>37.009099999999997</v>
+        <v>31.148199999999999</v>
       </c>
       <c r="F2">
-        <v>40.666800000000002</v>
+        <v>33.093299999999999</v>
       </c>
       <c r="G2">
-        <v>45.468699999999998</v>
+        <v>40.777900000000002</v>
       </c>
       <c r="H2">
-        <v>50.688200000000002</v>
-      </c>
-      <c r="J2" t="s">
+        <v>45.745699999999999</v>
+      </c>
+      <c r="I2">
+        <v>51.085900000000002</v>
+      </c>
+      <c r="J2">
+        <v>54.622700000000002</v>
+      </c>
+      <c r="K2">
+        <v>58.575299999999999</v>
+      </c>
+      <c r="L2">
+        <v>63.153700000000001</v>
+      </c>
+      <c r="N2" t="s">
         <v>2</v>
       </c>
-      <c r="L2">
-        <v>76.959199999999996</v>
-      </c>
-      <c r="M2">
-        <v>59.095399999999998</v>
-      </c>
-      <c r="N2">
-        <v>49.998100000000001</v>
-      </c>
-      <c r="O2">
-        <v>45.451799999999999</v>
-      </c>
       <c r="P2">
-        <v>41.918100000000003</v>
+        <v>62.296399999999998</v>
       </c>
       <c r="Q2">
-        <v>39.117899999999999</v>
+        <v>57.451700000000002</v>
       </c>
       <c r="R2">
-        <v>37.152799999999999</v>
+        <v>52.369399999999999</v>
       </c>
       <c r="S2">
-        <v>35.378500000000003</v>
+        <v>49.697800000000001</v>
       </c>
       <c r="T2">
-        <v>34.581899999999997</v>
+        <v>48.380800000000001</v>
       </c>
       <c r="U2">
-        <v>33.371600000000001</v>
+        <v>45.745699999999999</v>
       </c>
       <c r="V2">
-        <v>31.807300000000001</v>
+        <v>45.138300000000001</v>
+      </c>
+      <c r="W2">
+        <v>43.4054</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>3.3241700000000001</v>
-      </c>
       <c r="D3">
-        <v>4.2186000000000003</v>
+        <v>9.0430899999999994</v>
       </c>
       <c r="E3">
-        <v>5.0443699999999998</v>
+        <v>9.9374400000000005</v>
       </c>
       <c r="F3">
-        <v>5.77989</v>
+        <v>10.7126</v>
       </c>
       <c r="G3">
-        <v>6.3887499999999999</v>
+        <v>11.911</v>
       </c>
       <c r="H3">
-        <v>7.0952400000000004</v>
-      </c>
-      <c r="J3" t="s">
+        <v>13.206300000000001</v>
+      </c>
+      <c r="I3">
+        <v>14.2453</v>
+      </c>
+      <c r="J3">
+        <v>15.1669</v>
+      </c>
+      <c r="K3">
+        <v>16.143599999999999</v>
+      </c>
+      <c r="L3">
+        <v>17.5807</v>
+      </c>
+      <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="L3">
-        <v>21.336400000000001</v>
-      </c>
-      <c r="M3">
-        <v>17.149899999999999</v>
-      </c>
-      <c r="N3">
-        <v>15.0983</v>
-      </c>
-      <c r="O3">
-        <v>13.997</v>
-      </c>
+      <c r="O3" s="1"/>
       <c r="P3">
-        <v>13.144299999999999</v>
+        <v>16.508500000000002</v>
       </c>
       <c r="Q3">
-        <v>12.487</v>
+        <v>15.2315</v>
       </c>
       <c r="R3">
-        <v>12.033200000000001</v>
+        <v>14.513500000000001</v>
       </c>
       <c r="S3">
-        <v>11.831099999999999</v>
+        <v>13.733599999999999</v>
       </c>
       <c r="T3">
-        <v>11.5198</v>
+        <v>13.563800000000001</v>
       </c>
       <c r="U3">
-        <v>11.0299</v>
+        <v>13.206300000000001</v>
       </c>
       <c r="V3">
-        <v>10.8005</v>
+        <v>12.6906</v>
+      </c>
+      <c r="W3">
+        <v>12.4054</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>4.4459400000000002</v>
-      </c>
       <c r="D4">
-        <v>5.6508399999999996</v>
+        <v>11.914199999999999</v>
       </c>
       <c r="E4">
-        <v>6.7622200000000001</v>
+        <v>13.123200000000001</v>
       </c>
       <c r="F4">
-        <v>7.7705599999999997</v>
+        <v>14.1822</v>
       </c>
       <c r="G4">
-        <v>8.6094899999999992</v>
+        <v>15.785</v>
       </c>
       <c r="H4">
-        <v>9.57437</v>
-      </c>
-      <c r="J4" t="s">
+        <v>17.503299999999999</v>
+      </c>
+      <c r="I4">
+        <v>18.8977</v>
+      </c>
+      <c r="J4">
+        <v>20.1464</v>
+      </c>
+      <c r="K4">
+        <v>21.473199999999999</v>
+      </c>
+      <c r="L4">
+        <v>23.38</v>
+      </c>
+      <c r="N4" t="s">
         <v>4</v>
       </c>
-      <c r="L4">
-        <v>27.4437</v>
-      </c>
-      <c r="M4">
-        <v>22.168399999999998</v>
-      </c>
-      <c r="N4">
-        <v>19.583300000000001</v>
-      </c>
-      <c r="O4">
-        <v>18.195599999999999</v>
-      </c>
       <c r="P4">
-        <v>17.121099999999998</v>
+        <v>21.680399999999999</v>
       </c>
       <c r="Q4">
-        <v>16.292899999999999</v>
+        <v>20.064299999999999</v>
       </c>
       <c r="R4">
-        <v>15.7211</v>
+        <v>19.155100000000001</v>
       </c>
       <c r="S4">
-        <v>15.4664</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="T4">
-        <v>15.074199999999999</v>
+        <v>17.9558</v>
       </c>
       <c r="U4">
-        <v>14.456899999999999</v>
+        <v>17.503299999999999</v>
       </c>
       <c r="V4">
-        <v>14.167899999999999</v>
+        <v>16.853400000000001</v>
+      </c>
+      <c r="W4">
+        <v>16.492699999999999</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>28.474299999999999</v>
-      </c>
       <c r="D5">
-        <v>36.787700000000001</v>
+        <v>110.80800000000001</v>
       </c>
       <c r="E5">
-        <v>44.322499999999998</v>
+        <v>118.699</v>
       </c>
       <c r="F5">
-        <v>49.407400000000003</v>
+        <v>124.43300000000001</v>
       </c>
       <c r="G5">
-        <v>53.195099999999996</v>
+        <v>136.74100000000001</v>
       </c>
       <c r="H5">
-        <v>58.444400000000002</v>
-      </c>
-      <c r="J5" t="s">
+        <v>151.46600000000001</v>
+      </c>
+      <c r="I5">
+        <v>161.624</v>
+      </c>
+      <c r="J5">
+        <v>169.51400000000001</v>
+      </c>
+      <c r="K5">
+        <v>177.49100000000001</v>
+      </c>
+      <c r="L5">
+        <v>193.76599999999999</v>
+      </c>
+      <c r="N5" t="s">
         <v>5</v>
       </c>
-      <c r="L5">
-        <v>328.16300000000001</v>
-      </c>
-      <c r="M5">
-        <v>252.80600000000001</v>
-      </c>
-      <c r="N5">
-        <v>215.87700000000001</v>
-      </c>
-      <c r="O5">
-        <v>196.053</v>
-      </c>
       <c r="P5">
-        <v>180.70400000000001</v>
+        <v>209.27600000000001</v>
       </c>
       <c r="Q5">
-        <v>168.87299999999999</v>
+        <v>186.99799999999999</v>
       </c>
       <c r="R5">
-        <v>160.70500000000001</v>
+        <v>174.517</v>
       </c>
       <c r="S5">
-        <v>157.06700000000001</v>
+        <v>160.70699999999999</v>
       </c>
       <c r="T5">
-        <v>151.46299999999999</v>
+        <v>157.70099999999999</v>
       </c>
       <c r="U5">
-        <v>142.64599999999999</v>
+        <v>151.46600000000001</v>
       </c>
       <c r="V5">
-        <v>138.51599999999999</v>
+        <v>142.20099999999999</v>
+      </c>
+      <c r="W5">
+        <v>137.19300000000001</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>385736</v>
-      </c>
       <c r="D6">
-        <v>481045</v>
+        <v>2.6584400000000001</v>
       </c>
       <c r="E6">
-        <v>564739</v>
+        <v>3.0797599999999998</v>
       </c>
       <c r="F6">
-        <v>676552</v>
+        <v>3.5280200000000002</v>
       </c>
       <c r="G6">
-        <v>796219</v>
+        <v>3.923</v>
       </c>
       <c r="H6">
-        <v>911174</v>
-      </c>
-      <c r="J6" t="s">
+        <v>4.2036699999999998</v>
+      </c>
+      <c r="I6">
+        <v>4.5158699999999996</v>
+      </c>
+      <c r="J6">
+        <v>4.8563799999999997</v>
+      </c>
+      <c r="K6">
+        <v>5.2222299999999997</v>
+      </c>
+      <c r="L6">
+        <v>5.4575300000000002</v>
+      </c>
+      <c r="N6" t="s">
         <v>6</v>
       </c>
-      <c r="L6">
-        <v>4.7047299999999996</v>
-      </c>
-      <c r="M6">
-        <v>5.4824400000000004</v>
-      </c>
-      <c r="N6">
-        <v>5.9098100000000002</v>
-      </c>
-      <c r="O6">
-        <v>6.1430699999999998</v>
-      </c>
       <c r="P6">
-        <v>6.3140499999999999</v>
+        <v>3.0383</v>
       </c>
       <c r="Q6">
-        <v>6.4459600000000004</v>
+        <v>3.45329</v>
       </c>
       <c r="R6">
-        <v>6.5373999999999999</v>
+        <v>3.71671</v>
       </c>
       <c r="S6">
-        <v>6.6081399999999997</v>
+        <v>3.9725600000000001</v>
       </c>
       <c r="T6">
-        <v>6.67753</v>
+        <v>4.0770600000000004</v>
       </c>
       <c r="U6">
-        <v>6.7337699999999998</v>
+        <v>4.2036699999999998</v>
       </c>
       <c r="V6">
-        <v>6.7687600000000003</v>
-      </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
+        <v>4.3727900000000002</v>
+      </c>
+      <c r="W6">
+        <v>4.4629099999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>3.6709000000000001</v>
-      </c>
       <c r="D7">
-        <v>4.5310100000000002</v>
+        <v>14.495799999999999</v>
       </c>
       <c r="E7">
-        <v>5.4965799999999998</v>
+        <v>16.4359</v>
       </c>
       <c r="F7">
-        <v>6.2941900000000004</v>
+        <v>18.2072</v>
       </c>
       <c r="G7">
-        <v>6.9829100000000004</v>
+        <v>20.7454</v>
       </c>
       <c r="H7">
-        <v>7.7522000000000002</v>
-      </c>
-      <c r="J7" t="s">
+        <v>23.0276</v>
+      </c>
+      <c r="I7">
+        <v>25.207999999999998</v>
+      </c>
+      <c r="J7">
+        <v>27.3047</v>
+      </c>
+      <c r="K7">
+        <v>29.434999999999999</v>
+      </c>
+      <c r="L7">
+        <v>32.036299999999997</v>
+      </c>
+      <c r="N7" t="s">
         <v>7</v>
       </c>
-      <c r="L7">
-        <v>25.426200000000001</v>
-      </c>
-      <c r="M7">
-        <v>23.3506</v>
-      </c>
-      <c r="N7">
-        <v>22.3279</v>
-      </c>
-      <c r="O7">
-        <v>21.794</v>
-      </c>
+      <c r="O7" s="1"/>
       <c r="P7">
-        <v>21.429500000000001</v>
+        <v>26.224399999999999</v>
       </c>
       <c r="Q7">
-        <v>21.047699999999999</v>
+        <v>25.085999999999999</v>
       </c>
       <c r="R7">
-        <v>20.8611</v>
-      </c>
-      <c r="S7" s="1">
-        <v>20.735399999999998</v>
+        <v>24.290700000000001</v>
+      </c>
+      <c r="S7">
+        <v>23.654800000000002</v>
       </c>
       <c r="T7">
-        <v>20.516100000000002</v>
+        <v>23.463100000000001</v>
       </c>
       <c r="U7">
-        <v>20.268999999999998</v>
+        <v>23.0276</v>
       </c>
       <c r="V7">
-        <v>20.185199999999998</v>
+        <v>22.6797</v>
+      </c>
+      <c r="W7">
+        <v>22.366499999999998</v>
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="J9" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="N9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="17" spans="3:23">
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="3:23">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="22" spans="3:23">
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="17" spans="3:25">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="3:25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="22" spans="3:25">
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="T22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="M17:W17"/>
+  <mergeCells count="3">
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="C18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
